--- a/промежуточная таблица/matrix.xlsx
+++ b/промежуточная таблица/matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\промежуточная таблица\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CFE061-21FC-4B07-8629-727DB05DDF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76ED5C-76E3-42E0-9ABB-55D0555E5630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -345,9 +345,6 @@
     <t>кооф</t>
   </si>
   <si>
-    <t>старая кратность</t>
-  </si>
-  <si>
     <t>Конфеты "Доярушка" вал 4 кг  ЭсПрод</t>
   </si>
   <si>
@@ -367,6 +364,165 @@
   </si>
   <si>
     <t>E-1YA-577-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>Пакет Дой-пак с дозатором, Татарский</t>
+  </si>
+  <si>
+    <t>Пакет Дой-пак с дозатором, Краснодарский</t>
+  </si>
+  <si>
+    <t>Кетчуп Махеевъ "Кавказский" ДП 300 г  УП16</t>
+  </si>
+  <si>
+    <t>Твист, Домашняя</t>
+  </si>
+  <si>
+    <t>Пакет дой-пак, Лимонный</t>
+  </si>
+  <si>
+    <t>Пакет дой-пак, Черносмородиновый</t>
+  </si>
+  <si>
+    <t>Горчица готовая "Русская" туба</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Барбекю" ДП 230 г</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Кисло-сладкий" ДП 230 г</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Терияки" ДП 230 г</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Сырный" Дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Бургер-Соус" 50,5% ДОЙ-ПАК с дозатором</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Сливочно-чесночный" Дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>Пакет дой-пак, Махеевъ Маринад для курицы горчичный</t>
+  </si>
+  <si>
+    <t>Пакет дой-пак, Махеевъ Маринад традиционный для вкусного шашлыка</t>
+  </si>
+  <si>
+    <t>Пакет дой-пак, Махеевъ Маринад универсальный</t>
+  </si>
+  <si>
+    <t>кетчуп Пакет Дой-пак, болгарский</t>
+  </si>
+  <si>
+    <t>E-1TP-225-D14-X00-Y18 томат паста Пакет, Домашняя 140гр</t>
+  </si>
+  <si>
+    <t>E-1KH-623-D26-X00-Y16 кетчуп Пакет Дой-пак, для Гриля и Шашлыка 260 гр</t>
+  </si>
+  <si>
+    <t>Пакет Дой-пак, острый томатный</t>
+  </si>
+  <si>
+    <t>Пакет дой-пак, Мягкая Карамель E-2TP-413-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>Пакет дой-пак, Молочный с Какао 31495</t>
+  </si>
+  <si>
+    <t>Набор конфет TRUFFLE/ТРЮФЕЛЬ вал 4 кг ( MILK + CLASSIC + WHITE )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пакет дой-пак, Домашняя                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пакет дой-пак, "Вишневый" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пакет дой-пак, "Лесные ягоды" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соус Махеевъ "Тар-Тар" 25% ДП </t>
+  </si>
+  <si>
+    <t>"Горчичный", Пакет Дой-пак с дозатором 200гр</t>
+  </si>
+  <si>
+    <t>E-1KH-281-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-1KH-247-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-1KH-726-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-1TP-225-D07-X00-Y72</t>
+  </si>
+  <si>
+    <t>E-1TP-225-B50-X00-Y12</t>
+  </si>
+  <si>
+    <t>E-1DZ-251-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-1DZ-294-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-3SD-232-D23-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-3SD-243-D23-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-3SD-282-D23-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-2MC-322-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t>E-2MC-500-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t>E-2MC-533-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t>E-3PP-254-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-3PP-256-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-3PP-464-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-1KH-233-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-1TP-225-D14-X00-Y18</t>
+  </si>
+  <si>
+    <t>E-1KH-623-D26-X00-Y16</t>
+  </si>
+  <si>
+    <t>E-2MC-772-D20-X00-Y20</t>
+  </si>
+  <si>
+    <t>E-2TP-413-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>ДУБЛИ</t>
+  </si>
+  <si>
+    <t>Коробок в паллете</t>
+  </si>
+  <si>
+    <t>Пакет Дой-пак с дозатором, Лечо</t>
+  </si>
+  <si>
+    <t>E-1KH-249-D30-X00-Y16</t>
   </si>
 </sst>
 </file>
@@ -685,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +854,10 @@
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,10 +874,13 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -738,10 +897,14 @@
         <v>8</v>
       </c>
       <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I2" t="b">
+        <f>COUNTIF(C:C,C2)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -758,10 +921,14 @@
         <v>21</v>
       </c>
       <c r="H3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I66" si="0">COUNTIF(C:C,C3)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -780,8 +947,12 @@
       <c r="H4">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -798,10 +969,14 @@
         <v>21</v>
       </c>
       <c r="H5">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -820,8 +995,12 @@
       <c r="H6">
         <v>190</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -840,8 +1019,12 @@
       <c r="H7">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -860,8 +1043,12 @@
       <c r="H8">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -880,8 +1067,12 @@
       <c r="H9">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -900,8 +1091,12 @@
       <c r="H10">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -920,8 +1115,12 @@
       <c r="H11">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -940,8 +1139,12 @@
       <c r="H12">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -958,10 +1161,14 @@
         <v>16</v>
       </c>
       <c r="H13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -978,10 +1185,14 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1000,8 +1211,12 @@
       <c r="H15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1020,8 +1235,12 @@
       <c r="H16">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1040,8 +1259,12 @@
       <c r="H17">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1060,8 +1283,12 @@
       <c r="H18">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1080,8 +1307,12 @@
       <c r="H19">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1097,11 +1328,15 @@
       <c r="E20">
         <v>8</v>
       </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1118,10 +1353,14 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1140,8 +1379,12 @@
       <c r="H22">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1160,8 +1403,12 @@
       <c r="H23">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1178,10 +1425,14 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1198,10 +1449,14 @@
         <v>16</v>
       </c>
       <c r="H25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1217,11 +1472,15 @@
       <c r="E26">
         <v>16</v>
       </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1238,10 +1497,14 @@
         <v>16</v>
       </c>
       <c r="H27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1260,8 +1523,12 @@
       <c r="H28">
         <v>144</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1280,8 +1547,12 @@
       <c r="H29">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1298,10 +1569,14 @@
         <v>16</v>
       </c>
       <c r="H30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1318,10 +1593,14 @@
         <v>10</v>
       </c>
       <c r="H31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1338,10 +1617,14 @@
         <v>12</v>
       </c>
       <c r="H32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="I32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1358,10 +1641,14 @@
         <v>12</v>
       </c>
       <c r="H33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1380,8 +1667,12 @@
       <c r="H34">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1400,8 +1691,12 @@
       <c r="H35">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1420,8 +1715,12 @@
       <c r="H36">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1440,8 +1739,12 @@
       <c r="H37">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1460,8 +1763,12 @@
       <c r="H38">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1480,8 +1787,12 @@
       <c r="H39">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1500,8 +1811,12 @@
       <c r="H40">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1520,8 +1835,12 @@
       <c r="H41">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -1538,10 +1857,14 @@
         <v>10</v>
       </c>
       <c r="H42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -1558,10 +1881,14 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -1580,8 +1907,12 @@
       <c r="H44">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -1600,8 +1931,12 @@
       <c r="H45">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1617,11 +1952,15 @@
       <c r="E46">
         <v>10</v>
       </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -1638,10 +1977,14 @@
         <v>10</v>
       </c>
       <c r="H47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1660,8 +2003,12 @@
       <c r="H48">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -1680,8 +2027,12 @@
       <c r="H49">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
@@ -1700,10 +2051,14 @@
       <c r="H50">
         <v>144</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1717,16 +2072,23 @@
       <c r="E51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52">
         <v>0.2</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52">
         <v>20</v>
@@ -1734,16 +2096,23 @@
       <c r="E52">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>144</v>
+      </c>
+      <c r="I52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53">
         <v>0.19</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53">
         <v>12</v>
@@ -1751,29 +2120,736 @@
       <c r="E53">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>190</v>
+      </c>
+      <c r="I53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>0.3</v>
       </c>
       <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+      <c r="H54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="D54">
-        <v>16</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="H54">
-        <v>144</v>
+      <c r="B55">
+        <v>0.3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>144</v>
+      </c>
+      <c r="I55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="H56">
+        <v>144</v>
+      </c>
+      <c r="I56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57">
+        <v>0.3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>144</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>16</v>
+      </c>
+      <c r="H58">
+        <v>144</v>
+      </c>
+      <c r="I58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>66</v>
+      </c>
+      <c r="I59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60">
+        <v>0.3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>144</v>
+      </c>
+      <c r="I60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61">
+        <v>0.3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>16</v>
+      </c>
+      <c r="H61">
+        <v>144</v>
+      </c>
+      <c r="I61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62">
+        <v>0.3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>144</v>
+      </c>
+      <c r="I62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63">
+        <v>0.3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>144</v>
+      </c>
+      <c r="I63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>21</v>
+      </c>
+      <c r="H64">
+        <v>168</v>
+      </c>
+      <c r="I64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65">
+        <v>0.23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>144</v>
+      </c>
+      <c r="I65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66">
+        <v>0.23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="H66">
+        <v>144</v>
+      </c>
+      <c r="I66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67">
+        <v>0.23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>16</v>
+      </c>
+      <c r="H67">
+        <v>144</v>
+      </c>
+      <c r="I67" t="b">
+        <f t="shared" ref="I67:I83" si="1">COUNTIF(C:C,C67)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68">
+        <v>0.2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="H68">
+        <v>144</v>
+      </c>
+      <c r="I68" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69">
+        <v>0.2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+      <c r="H69">
+        <v>144</v>
+      </c>
+      <c r="I69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70">
+        <v>0.2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>16</v>
+      </c>
+      <c r="H70">
+        <v>144</v>
+      </c>
+      <c r="I70" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71">
+        <v>0.2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>144</v>
+      </c>
+      <c r="I71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72">
+        <v>0.3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="H72">
+        <v>144</v>
+      </c>
+      <c r="I72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73">
+        <v>0.3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>16</v>
+      </c>
+      <c r="H73">
+        <v>144</v>
+      </c>
+      <c r="I73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74">
+        <v>0.3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>16</v>
+      </c>
+      <c r="H74">
+        <v>144</v>
+      </c>
+      <c r="I74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75">
+        <v>0.3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <v>144</v>
+      </c>
+      <c r="I75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
+      </c>
+      <c r="H76">
+        <v>147</v>
+      </c>
+      <c r="I76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77">
+        <v>0.26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="H77">
+        <v>144</v>
+      </c>
+      <c r="I77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78">
+        <v>0.2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>16</v>
+      </c>
+      <c r="H78">
+        <v>144</v>
+      </c>
+      <c r="I78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79">
+        <v>0.3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <v>144</v>
+      </c>
+      <c r="I79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80">
+        <v>0.3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>16</v>
+      </c>
+      <c r="H80">
+        <v>144</v>
+      </c>
+      <c r="I80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81">
+        <v>0.3</v>
+      </c>
+      <c r="C81">
+        <v>31495</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>16</v>
+      </c>
+      <c r="H81">
+        <v>144</v>
+      </c>
+      <c r="I81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83">
+        <v>0.3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>144</v>
+      </c>
+      <c r="I83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H54" xr:uid="{005E20FC-D15F-460B-950A-C3EAF6AB3789}"/>
+  <autoFilter ref="A1:H83" xr:uid="{005E20FC-D15F-460B-950A-C3EAF6AB3789}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/промежуточная таблица/matrix.xlsx
+++ b/промежуточная таблица/matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\промежуточная таблица\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D76ED5C-76E3-42E0-9ABB-55D0555E5630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB180CF5-498E-4497-91FE-E86E6EDDACFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,9 +387,6 @@
     <t>Горчица готовая "Русская" туба</t>
   </si>
   <si>
-    <t>Соус деликатесный Махеевъ "Барбекю" ДП 230 г</t>
-  </si>
-  <si>
     <t>Соус деликатесный Махеевъ "Кисло-сладкий" ДП 230 г</t>
   </si>
   <si>
@@ -405,24 +402,6 @@
     <t>Майонезный соус Махеевъ "Сливочно-чесночный" Дой-пак с дозатором</t>
   </si>
   <si>
-    <t>Пакет дой-пак, Махеевъ Маринад для курицы горчичный</t>
-  </si>
-  <si>
-    <t>Пакет дой-пак, Махеевъ Маринад традиционный для вкусного шашлыка</t>
-  </si>
-  <si>
-    <t>Пакет дой-пак, Махеевъ Маринад универсальный</t>
-  </si>
-  <si>
-    <t>кетчуп Пакет Дой-пак, болгарский</t>
-  </si>
-  <si>
-    <t>E-1TP-225-D14-X00-Y18 томат паста Пакет, Домашняя 140гр</t>
-  </si>
-  <si>
-    <t>E-1KH-623-D26-X00-Y16 кетчуп Пакет Дой-пак, для Гриля и Шашлыка 260 гр</t>
-  </si>
-  <si>
     <t>Пакет Дой-пак, острый томатный</t>
   </si>
   <si>
@@ -444,12 +423,6 @@
     <t xml:space="preserve">Пакет дой-пак, "Лесные ягоды" </t>
   </si>
   <si>
-    <t xml:space="preserve">Соус Махеевъ "Тар-Тар" 25% ДП </t>
-  </si>
-  <si>
-    <t>"Горчичный", Пакет Дой-пак с дозатором 200гр</t>
-  </si>
-  <si>
     <t>E-1KH-281-D30-X00-Y16</t>
   </si>
   <si>
@@ -519,10 +492,37 @@
     <t>Коробок в паллете</t>
   </si>
   <si>
-    <t>Пакет Дой-пак с дозатором, Лечо</t>
-  </si>
-  <si>
     <t>E-1KH-249-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>Кетчуп Махеевъ "Лечо" пакет ДОЙ-ПАК с дозатором 300 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Горчичный" 50,5 % жирн. ДОЙ-ПАК с дозатором 200 г   ЭсПрод</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Тар-Тар" 25% ДП 200 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Приправа пищевкусовая "Маринад для курицы горчичный" Махеевъ ДОЙ-ПАК с дозатором 300 г(16шт)  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Приправа пищевкусовая "Маринад традиционный для вкусного шашлыка" Махеевъ ДОЙ-ПАК 300 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Барбекю" ДОЙ-ПАК с дозатором 230 г (16 шт)  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Томатная паста Махеевъ " Домашняя" пакет 140 г   ЭсПрод</t>
+  </si>
+  <si>
+    <t>Кетчуп  Махеевъ "Болгарский" пакет ДОЙ-ПАК с дозатором 300 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Кетчуп  Махеевъ "Для Гриля и Шашлыка" ДОЙ-ПАК с дозатором 260 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Приправа пищевкусовая "Маринад Универсальный" Махеевъ ДОЙ-ПАК 300 г(16шт) ЭсПрод</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +874,10 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>147</v>
       </c>
       <c r="I3" t="b">
-        <f t="shared" ref="I3:I66" si="0">COUNTIF(C:C,C3)&gt;1</f>
+        <f>COUNTIF(C:C,C3)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>190</v>
       </c>
       <c r="I4" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C4)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -972,7 +972,7 @@
         <v>147</v>
       </c>
       <c r="I5" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C5)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>190</v>
       </c>
       <c r="I6" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C6)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>144</v>
       </c>
       <c r="I7" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C7)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
         <v>144</v>
       </c>
       <c r="I8" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C8)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>144</v>
       </c>
       <c r="I9" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C9)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>144</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C10)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>144</v>
       </c>
       <c r="I11" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C11)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>144</v>
       </c>
       <c r="I12" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C12)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
         <v>160</v>
       </c>
       <c r="I13" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C13)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>100</v>
       </c>
       <c r="I14" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C14)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>80</v>
       </c>
       <c r="I15" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C15)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>144</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C16)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>144</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C17)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>80</v>
       </c>
       <c r="I18" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C18)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>80</v>
       </c>
       <c r="I19" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C19)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
         <v>#N/A</v>
       </c>
       <c r="I20" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C20)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>64</v>
       </c>
       <c r="I21" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C21)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>144</v>
       </c>
       <c r="I22" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C22)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>144</v>
       </c>
       <c r="I23" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C23)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>64</v>
       </c>
       <c r="I24" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C24)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         <v>160</v>
       </c>
       <c r="I25" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C25)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>#N/A</v>
       </c>
       <c r="I26" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C26)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>160</v>
       </c>
       <c r="I27" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C27)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
         <v>144</v>
       </c>
       <c r="I28" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C28)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v>144</v>
       </c>
       <c r="I29" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C29)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>160</v>
       </c>
       <c r="I30" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C30)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
         <v>100</v>
       </c>
       <c r="I31" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C31)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
         <v>72</v>
       </c>
       <c r="I32" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C32)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>72</v>
       </c>
       <c r="I33" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C33)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
         <v>80</v>
       </c>
       <c r="I34" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C34)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>144</v>
       </c>
       <c r="I35" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C35)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>80</v>
       </c>
       <c r="I36" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C36)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
         <v>80</v>
       </c>
       <c r="I37" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C37)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
         <v>80</v>
       </c>
       <c r="I38" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C38)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
         <v>80</v>
       </c>
       <c r="I39" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C39)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
         <v>80</v>
       </c>
       <c r="I40" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C40)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
         <v>144</v>
       </c>
       <c r="I41" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C41)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
         <v>100</v>
       </c>
       <c r="I42" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C42)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
         <v>168</v>
       </c>
       <c r="I43" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C43)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
         <v>144</v>
       </c>
       <c r="I44" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C44)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
         <v>144</v>
       </c>
       <c r="I45" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C45)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>#N/A</v>
       </c>
       <c r="I46" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C46)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
         <v>100</v>
       </c>
       <c r="I47" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C47)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         <v>144</v>
       </c>
       <c r="I48" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C48)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
         <v>80</v>
       </c>
       <c r="I49" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C49)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
         <v>144</v>
       </c>
       <c r="I50" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C50)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>100</v>
       </c>
       <c r="I51" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C51)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
         <v>144</v>
       </c>
       <c r="I52" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C52)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
         <v>190</v>
       </c>
       <c r="I53" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C53)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
         <v>#N/A</v>
       </c>
       <c r="I54" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C54)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
         <v>0.3</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D55">
         <v>16</v>
@@ -2172,7 +2172,7 @@
         <v>144</v>
       </c>
       <c r="I55" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C55)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>0.3</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D56">
         <v>16</v>
@@ -2196,7 +2196,7 @@
         <v>144</v>
       </c>
       <c r="I56" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C56)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
         <v>0.3</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D57">
         <v>16</v>
@@ -2220,19 +2220,19 @@
         <v>144</v>
       </c>
       <c r="I57" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C57)&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D58">
         <v>72</v>
@@ -2244,7 +2244,7 @@
         <v>144</v>
       </c>
       <c r="I58" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C58)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>0.5</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D59">
         <v>12</v>
@@ -2268,7 +2268,7 @@
         <v>66</v>
       </c>
       <c r="I59" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C59)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
         <v>0.3</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -2292,13 +2292,13 @@
         <v>144</v>
       </c>
       <c r="I60" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C60)&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>0.3</v>
@@ -2316,19 +2316,19 @@
         <v>144</v>
       </c>
       <c r="I61" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C61)&gt;1</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B62">
         <v>0.3</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -2340,7 +2340,7 @@
         <v>144</v>
       </c>
       <c r="I62" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C62)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
         <v>144</v>
       </c>
       <c r="I63" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C63)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
         <v>168</v>
       </c>
       <c r="I64" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C64)&gt;1</f>
         <v>1</v>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>0.23</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -2412,7 +2412,7 @@
         <v>144</v>
       </c>
       <c r="I65" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C65)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>0.23</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D66">
         <v>16</v>
@@ -2436,7 +2436,7 @@
         <v>144</v>
       </c>
       <c r="I66" t="b">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C:C,C66)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2445,13 +2445,13 @@
         <v>119</v>
       </c>
       <c r="B67">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>16</v>
@@ -2460,7 +2460,7 @@
         <v>144</v>
       </c>
       <c r="I67" t="b">
-        <f t="shared" ref="I67:I83" si="1">COUNTIF(C:C,C67)&gt;1</f>
+        <f>COUNTIF(C:C,C67)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>0.2</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D68">
         <v>20</v>
@@ -2484,7 +2484,7 @@
         <v>144</v>
       </c>
       <c r="I68" t="b">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C68)&gt;1</f>
         <v>0</v>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
         <v>0.2</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -2508,22 +2508,22 @@
         <v>144</v>
       </c>
       <c r="I69" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C69)&gt;1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B70">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>16</v>
@@ -2532,22 +2532,22 @@
         <v>144</v>
       </c>
       <c r="I70" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C70)&gt;1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B71">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>16</v>
@@ -2556,19 +2556,19 @@
         <v>144</v>
       </c>
       <c r="I71" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>COUNTIF(C:C,C71)&gt;1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B72">
         <v>0.3</v>
       </c>
-      <c r="C72" t="s">
-        <v>151</v>
+      <c r="C72">
+        <v>31495</v>
       </c>
       <c r="D72">
         <v>16</v>
@@ -2580,43 +2580,43 @@
         <v>144</v>
       </c>
       <c r="I72" t="b">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C72)&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B73">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H73">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="I73" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF(C:C,C73)&gt;1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>125</v>
+      <c r="A74" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B74">
         <v>0.3</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D74">
         <v>16</v>
@@ -2628,163 +2628,160 @@
         <v>144</v>
       </c>
       <c r="I74" t="b">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C74)&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75">
+      <c r="A75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>16</v>
+      </c>
+      <c r="H75">
+        <v>144</v>
+      </c>
+      <c r="I75" t="b">
+        <f>COUNTIF(C:C,C75)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76">
+        <v>0.2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>16</v>
+      </c>
+      <c r="H76">
+        <v>144</v>
+      </c>
+      <c r="I76" t="b">
+        <f>COUNTIF(C:C,C76)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77">
         <v>0.3</v>
       </c>
-      <c r="C75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75">
-        <v>16</v>
-      </c>
-      <c r="E75">
-        <v>16</v>
-      </c>
-      <c r="H75">
-        <v>144</v>
-      </c>
-      <c r="I75" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76">
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="H77">
+        <v>144</v>
+      </c>
+      <c r="I77" t="b">
+        <f>COUNTIF(C:C,C77)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78">
+        <v>0.3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>16</v>
+      </c>
+      <c r="H78">
+        <v>144</v>
+      </c>
+      <c r="I78" t="b">
+        <f>COUNTIF(C:C,C78)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79">
+        <v>0.23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="H79">
+        <v>144</v>
+      </c>
+      <c r="I79" t="b">
+        <f>COUNTIF(C:C,C79)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76">
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80">
         <v>18</v>
       </c>
-      <c r="E76">
+      <c r="E80">
         <v>21</v>
       </c>
-      <c r="H76">
+      <c r="H80">
         <v>147</v>
       </c>
-      <c r="I76" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77">
-        <v>0.26</v>
-      </c>
-      <c r="C77" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77">
-        <v>16</v>
-      </c>
-      <c r="E77">
-        <v>16</v>
-      </c>
-      <c r="H77">
-        <v>144</v>
-      </c>
-      <c r="I77" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78">
-        <v>0.2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78">
-        <v>20</v>
-      </c>
-      <c r="E78">
-        <v>16</v>
-      </c>
-      <c r="H78">
-        <v>144</v>
-      </c>
-      <c r="I78" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79">
-        <v>0.3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79">
-        <v>16</v>
-      </c>
-      <c r="E79">
-        <v>16</v>
-      </c>
-      <c r="H79">
-        <v>144</v>
-      </c>
-      <c r="I79" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80">
-        <v>0.3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80">
-        <v>16</v>
-      </c>
-      <c r="E80">
-        <v>16</v>
-      </c>
-      <c r="H80">
-        <v>144</v>
-      </c>
       <c r="I80" t="b">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C80)&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>131</v>
+      <c r="A81" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B81">
         <v>0.3</v>
       </c>
-      <c r="C81">
-        <v>31495</v>
+      <c r="C81" t="s">
+        <v>145</v>
       </c>
       <c r="D81">
         <v>16</v>
@@ -2796,43 +2793,43 @@
         <v>144</v>
       </c>
       <c r="I81" t="b">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C81)&gt;1</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>132</v>
+      <c r="A82" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I82" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>COUNTIF(C:C,C82)&gt;1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>161</v>
+      <c r="A83" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B83">
         <v>0.3</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D83">
         <v>16</v>
@@ -2844,7 +2841,7 @@
         <v>144</v>
       </c>
       <c r="I83" t="b">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C:C,C83)&gt;1</f>
         <v>0</v>
       </c>
     </row>

--- a/промежуточная таблица/matrix.xlsx
+++ b/промежуточная таблица/matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\промежуточная таблица\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB180CF5-498E-4497-91FE-E86E6EDDACFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4436E547-A7E3-49DF-B919-C27913B182D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$91</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="173">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -523,6 +523,36 @@
   </si>
   <si>
     <t>Приправа пищевкусовая "Маринад Универсальный" Махеевъ ДОЙ-ПАК 300 г(16шт) ЭсПрод</t>
+  </si>
+  <si>
+    <t>Кетчуп Махеевъ "Татарский" пакет ДОЙ-ПАК с дозатором 300г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Бургер-Соус" 50,5 % жирн.ДОЙ-ПАК с дозатором 200 г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Майонезный соус Махеевъ "Сырный" 50,5 % жирн.ДОЙ-ПАК с дозатором 200г  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Кисло-сладкий" ДОЙ-ПАК с дозатором 230г (16шт)  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Соус деликатесный Махеевъ "Терияки" ДОЙ-ПАК с дозатором 230 г (16 шт)  ЭсПрод</t>
+  </si>
+  <si>
+    <t>Джем Махеевъ "Малиновый" ДП 300 г  УП16</t>
+  </si>
+  <si>
+    <t>Джем Махеевъ "Апельсиновый" ДП 300 г  УП16</t>
+  </si>
+  <si>
+    <t>E-1DZ-231-D30-X00-Y16</t>
+  </si>
+  <si>
+    <t>Кетчуп Махеевъ "Томатный" ДП 500 г  УП10</t>
+  </si>
+  <si>
+    <t>E-1KH-284-D50-X00-Y10</t>
   </si>
 </sst>
 </file>
@@ -841,11 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1032,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.3</v>
@@ -1026,13 +1056,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0.3</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -1045,18 +1075,18 @@
       </c>
       <c r="I8" t="b">
         <f>COUNTIF(C:C,C8)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0.3</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -1074,13 +1104,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="B10">
         <v>0.3</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -1093,18 +1123,18 @@
       </c>
       <c r="I10" t="b">
         <f>COUNTIF(C:C,C10)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0.3</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -1117,18 +1147,18 @@
       </c>
       <c r="I11" t="b">
         <f>COUNTIF(C:C,C11)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0.3</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>16</v>
@@ -1146,22 +1176,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>16</v>
       </c>
       <c r="H13">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I13" t="b">
         <f>COUNTIF(C:C,C13)&gt;1</f>
@@ -1170,22 +1200,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I14" t="b">
         <f>COUNTIF(C:C,C14)&gt;1</f>
@@ -1194,22 +1224,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="I15" t="b">
         <f>COUNTIF(C:C,C15)&gt;1</f>
@@ -1218,22 +1248,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="I16" t="b">
         <f>COUNTIF(C:C,C16)&gt;1</f>
@@ -1242,22 +1272,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="I17" t="b">
         <f>COUNTIF(C:C,C17)&gt;1</f>
@@ -1266,22 +1296,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I18" t="b">
         <f>COUNTIF(C:C,C18)&gt;1</f>
@@ -1290,22 +1320,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I19" t="b">
         <f>COUNTIF(C:C,C19)&gt;1</f>
@@ -1314,22 +1344,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
-      <c r="H20" t="e">
-        <v>#N/A</v>
+      <c r="H20">
+        <v>80</v>
       </c>
       <c r="I20" t="b">
         <f>COUNTIF(C:C,C20)&gt;1</f>
@@ -1338,22 +1368,22 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
         <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
       </c>
       <c r="E21">
         <v>8</v>
       </c>
       <c r="H21">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I21" t="b">
         <f>COUNTIF(C:C,C21)&gt;1</f>
@@ -1362,22 +1392,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="H22">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="H22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I22" t="b">
         <f>COUNTIF(C:C,C22)&gt;1</f>
@@ -1386,22 +1416,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="I23" t="b">
         <f>COUNTIF(C:C,C23)&gt;1</f>
@@ -1410,22 +1440,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="I24" t="b">
         <f>COUNTIF(C:C,C24)&gt;1</f>
@@ -1434,22 +1464,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>16</v>
       </c>
       <c r="H25">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I25" t="b">
         <f>COUNTIF(C:C,C25)&gt;1</f>
@@ -1458,22 +1488,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="H26" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>64</v>
       </c>
       <c r="I26" t="b">
         <f>COUNTIF(C:C,C26)&gt;1</f>
@@ -1482,13 +1512,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27">
         <v>1.5</v>
@@ -1506,46 +1536,46 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>1.5</v>
       </c>
       <c r="E28">
         <v>16</v>
       </c>
-      <c r="H28">
-        <v>144</v>
+      <c r="H28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I28" t="b">
         <f>COUNTIF(C:C,C28)&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>1.5</v>
       </c>
       <c r="E29">
         <v>16</v>
       </c>
       <c r="H29">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="I29" t="b">
         <f>COUNTIF(C:C,C29)&gt;1</f>
@@ -1554,70 +1584,70 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>16</v>
       </c>
       <c r="H30">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I30" t="b">
         <f>COUNTIF(C:C,C30)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I31" t="b">
         <f>COUNTIF(C:C,C31)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H32">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="I32" t="b">
         <f>COUNTIF(C:C,C32)&gt;1</f>
@@ -1626,22 +1656,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="I33" t="b">
         <f>COUNTIF(C:C,C33)&gt;1</f>
@@ -1650,22 +1680,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="E34">
-        <v>8</v>
-      </c>
       <c r="H34">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I34" t="b">
         <f>COUNTIF(C:C,C34)&gt;1</f>
@@ -1674,22 +1704,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B35">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H35">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I35" t="b">
         <f>COUNTIF(C:C,C35)&gt;1</f>
@@ -1698,22 +1728,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H36">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I36" t="b">
         <f>COUNTIF(C:C,C36)&gt;1</f>
@@ -1722,16 +1752,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B37">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -1746,22 +1776,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38">
-        <v>0.77</v>
+        <v>0.19</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I38" t="b">
         <f>COUNTIF(C:C,C38)&gt;1</f>
@@ -1770,13 +1800,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>0.38</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>20</v>
@@ -1794,16 +1824,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B40">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -1818,22 +1848,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41">
-        <v>0.19</v>
+        <v>0.77</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="I41" t="b">
         <f>COUNTIF(C:C,C41)&gt;1</f>
@@ -1842,64 +1872,64 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I42" t="b">
         <f>COUNTIF(C:C,C42)&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="I43" t="b">
         <f>COUNTIF(C:C,C43)&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>16</v>
@@ -1914,22 +1944,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B45">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H45">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="I45" t="b">
         <f>COUNTIF(C:C,C45)&gt;1</f>
@@ -1938,13 +1968,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -1952,32 +1982,32 @@
       <c r="E46">
         <v>10</v>
       </c>
-      <c r="H46" t="e">
-        <v>#N/A</v>
+      <c r="H46">
+        <v>100</v>
       </c>
       <c r="I46" t="b">
         <f>COUNTIF(C:C,C46)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="I47" t="b">
         <f>COUNTIF(C:C,C47)&gt;1</f>
@@ -1986,46 +2016,46 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B48">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>16</v>
       </c>
       <c r="H48">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I48" t="b">
         <f>COUNTIF(C:C,C48)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B49">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>10</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="I49" t="b">
         <f>COUNTIF(C:C,C49)&gt;1</f>
@@ -2033,17 +2063,17 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>96</v>
+      <c r="A50" t="s">
+        <v>122</v>
       </c>
       <c r="B50">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>16</v>
@@ -2057,23 +2087,23 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>103</v>
+      <c r="A51" t="s">
+        <v>89</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I51" t="b">
         <f>COUNTIF(C:C,C51)&gt;1</f>
@@ -2082,22 +2112,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B52">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>16</v>
-      </c>
-      <c r="H52">
-        <v>144</v>
+        <v>10</v>
+      </c>
+      <c r="H52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I52" t="b">
         <f>COUNTIF(C:C,C52)&gt;1</f>
@@ -2105,65 +2135,65 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>105</v>
+      <c r="A53" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D53">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="I53" t="b">
         <f>COUNTIF(C:C,C53)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B54">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="H54" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
       </c>
       <c r="I54" t="b">
         <f>COUNTIF(C:C,C54)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B55">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>16</v>
@@ -2178,22 +2208,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B56">
-        <v>0.3</v>
+        <v>0.77</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H56">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="I56" t="b">
         <f>COUNTIF(C:C,C56)&gt;1</f>
@@ -2202,16 +2232,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B57">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>16</v>
@@ -2226,22 +2256,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B58">
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D58">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H58">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="I58" t="b">
         <f>COUNTIF(C:C,C58)&gt;1</f>
@@ -2250,22 +2280,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>11</v>
-      </c>
-      <c r="H59">
-        <v>66</v>
+        <v>16</v>
+      </c>
+      <c r="H59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I59" t="b">
         <f>COUNTIF(C:C,C59)&gt;1</f>
@@ -2274,13 +2304,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B60">
         <v>0.3</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -2293,18 +2323,18 @@
       </c>
       <c r="I60" t="b">
         <f>COUNTIF(C:C,C60)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B61">
         <v>0.3</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D61">
         <v>16</v>
@@ -2322,13 +2352,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B62">
         <v>0.3</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -2346,13 +2376,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B63">
         <v>0.3</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="D63">
         <v>16</v>
@@ -2365,51 +2395,51 @@
       </c>
       <c r="I63" t="b">
         <f>COUNTIF(C:C,C63)&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E64">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="I64" t="b">
         <f>COUNTIF(C:C,C64)&gt;1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B65">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H65">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="I65" t="b">
         <f>COUNTIF(C:C,C65)&gt;1</f>
@@ -2418,13 +2448,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B66">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D66">
         <v>16</v>
@@ -2442,16 +2472,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B67">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>16</v>
@@ -2466,16 +2496,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="B68">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>16</v>
@@ -2485,21 +2515,21 @@
       </c>
       <c r="I68" t="b">
         <f>COUNTIF(C:C,C68)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B69">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>16</v>
@@ -2514,13 +2544,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B70">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D70">
         <v>16</v>
@@ -2538,13 +2568,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B71">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D71">
         <v>16</v>
@@ -2557,21 +2587,21 @@
       </c>
       <c r="I71" t="b">
         <f>COUNTIF(C:C,C71)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="B72">
-        <v>0.3</v>
-      </c>
-      <c r="C72">
-        <v>31495</v>
+        <v>0.2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>16</v>
@@ -2581,27 +2611,27 @@
       </c>
       <c r="I72" t="b">
         <f>COUNTIF(C:C,C72)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H73">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I73" t="b">
         <f>COUNTIF(C:C,C73)&gt;1</f>
@@ -2609,17 +2639,17 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>153</v>
+      <c r="A74" t="s">
+        <v>164</v>
       </c>
       <c r="B74">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>16</v>
@@ -2629,15 +2659,18 @@
       </c>
       <c r="I74" t="b">
         <f>COUNTIF(C:C,C74)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>154</v>
+      <c r="A75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75">
+        <v>0.2</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -2650,18 +2683,18 @@
       </c>
       <c r="I75" t="b">
         <f>COUNTIF(C:C,C75)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B76">
         <v>0.2</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="D76">
         <v>20</v>
@@ -2674,21 +2707,21 @@
       </c>
       <c r="I76" t="b">
         <f>COUNTIF(C:C,C76)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>156</v>
+      <c r="A77" t="s">
+        <v>121</v>
       </c>
       <c r="B77">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>16</v>
@@ -2698,18 +2731,18 @@
       </c>
       <c r="I77" t="b">
         <f>COUNTIF(C:C,C77)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>157</v>
+      <c r="A78" t="s">
+        <v>123</v>
       </c>
       <c r="B78">
         <v>0.3</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D78">
         <v>16</v>
@@ -2726,14 +2759,14 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>158</v>
+      <c r="A79" t="s">
+        <v>124</v>
       </c>
       <c r="B79">
-        <v>0.23</v>
-      </c>
-      <c r="C79" t="s">
-        <v>136</v>
+        <v>0.3</v>
+      </c>
+      <c r="C79">
+        <v>31495</v>
       </c>
       <c r="D79">
         <v>16</v>
@@ -2751,22 +2784,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B80">
-        <v>0.14000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D80">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H80">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I80" t="b">
         <f>COUNTIF(C:C,C80)&gt;1</f>
@@ -2775,16 +2808,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81">
-        <v>0.3</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>16</v>
@@ -2799,16 +2829,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B82">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>16</v>
@@ -2823,13 +2853,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B83">
         <v>0.3</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D83">
         <v>16</v>
@@ -2845,8 +2875,200 @@
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84">
+        <v>0.3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>144</v>
+      </c>
+      <c r="I84" t="b">
+        <f>COUNTIF(C:C,C84)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85">
+        <v>0.23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="H85">
+        <v>144</v>
+      </c>
+      <c r="I85" t="b">
+        <f>COUNTIF(C:C,C85)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
+      </c>
+      <c r="H86">
+        <v>147</v>
+      </c>
+      <c r="I86" t="b">
+        <f>COUNTIF(C:C,C86)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87">
+        <v>0.3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="H87">
+        <v>144</v>
+      </c>
+      <c r="I87" t="b">
+        <f>COUNTIF(C:C,C87)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88">
+        <v>0.26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="H88">
+        <v>144</v>
+      </c>
+      <c r="I88" t="b">
+        <f>COUNTIF(C:C,C88)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89">
+        <v>0.3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>16</v>
+      </c>
+      <c r="H89">
+        <v>144</v>
+      </c>
+      <c r="I89" t="b">
+        <f>COUNTIF(C:C,C89)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90">
+        <v>0.3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>16</v>
+      </c>
+      <c r="H90">
+        <v>144</v>
+      </c>
+      <c r="I90" t="b">
+        <f>COUNTIF(C:C,C90)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91">
+        <v>0.5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>16</v>
+      </c>
+      <c r="H91">
+        <v>144</v>
+      </c>
+      <c r="I91" t="b">
+        <f>COUNTIF(C:C,C91)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H83" xr:uid="{005E20FC-D15F-460B-950A-C3EAF6AB3789}"/>
+  <autoFilter ref="A1:I91" xr:uid="{D65BE010-4DC8-493F-A87A-D88D5F7DA623}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>